--- a/项目文档/后台接口/博客接口文档.xlsx
+++ b/项目文档/后台接口/博客接口文档.xlsx
@@ -43,7 +43,7 @@
     <t>查询|id</t>
   </si>
   <si>
-    <t>/api/web/blog/findById</t>
+    <t>/web/blog/findById</t>
   </si>
   <si>
     <t>id</t>
@@ -58,7 +58,7 @@
     <t>查询|title</t>
   </si>
   <si>
-    <t>/api/web/blog/findByTitle</t>
+    <t>/web/blog/findByTitle</t>
   </si>
   <si>
     <t>title</t>
@@ -70,7 +70,7 @@
     <t>分页查询</t>
   </si>
   <si>
-    <t>/api/web/blog/findAll</t>
+    <t>/web/blog/findAll</t>
   </si>
   <si>
     <r>
@@ -108,7 +108,7 @@
     <t>删除</t>
   </si>
   <si>
-    <t>/api/web/blog/delete</t>
+    <t>/web/blog/delete</t>
   </si>
   <si>
     <t>根据id删除博客(软删除)</t>
@@ -117,7 +117,7 @@
     <t>更新博客</t>
   </si>
   <si>
-    <t>/api/web/blogUpdate</t>
+    <t>/web/blogUpdate</t>
   </si>
   <si>
     <r>
@@ -209,7 +209,7 @@
     <t>写博客</t>
   </si>
   <si>
-    <t>/api/web/add</t>
+    <t>/web/add</t>
   </si>
 </sst>
 </file>
@@ -217,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -266,8 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +284,69 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,81 +368,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,9 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,187 +422,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,15 +627,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +657,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,91 +733,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -826,55 +826,55 @@
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D1" sqref="B$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>

--- a/项目文档/后台接口/博客接口文档.xlsx
+++ b/项目文档/后台接口/博客接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>模块</t>
   </si>
@@ -100,6 +100,9 @@
       </rPr>
       <t>pageSize</t>
     </r>
+  </si>
+  <si>
+    <t>默认start1 pageSize 10</t>
   </si>
   <si>
     <t>根据页码和条数查询博客</t>
@@ -217,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="24">
@@ -266,46 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,34 +284,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,6 +309,82 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -379,23 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,43 +425,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,139 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,17 +634,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +665,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +699,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -717,164 +731,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2143,7 +2146,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="B$1:F$1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2238,17 +2241,19 @@
       <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="22.75" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -2258,43 +2263,43 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
       <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">

--- a/项目文档/后台接口/博客接口文档.xlsx
+++ b/项目文档/后台接口/博客接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>模块</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
       <t>title</t>
     </r>
     <r>
@@ -202,7 +196,7 @@
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>vote</t>
+      <t>vote,blogType</t>
     </r>
   </si>
   <si>
@@ -213,6 +207,83 @@
   </si>
   <si>
     <t>/web/add</t>
+  </si>
+  <si>
+    <r>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vote,,blogType</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -221,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="24">
@@ -272,6 +343,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -283,9 +368,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,79 +452,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,16 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,13 +496,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +610,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,157 +646,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,21 +719,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +739,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -699,17 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,9 +794,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,148 +807,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2146,14 +2217,14 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4285714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.7142857142857" style="3" customWidth="1"/>
@@ -2292,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>28</v>
